--- a/Jogos_do_Dia/2024-04-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -4826,10 +4826,10 @@
         <v>1.18</v>
       </c>
       <c r="Z22">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AA22">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AB22">
         <v>1.21</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AA23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AB23">
         <v>1.36</v>
@@ -5088,7 +5088,7 @@
         <v>1.37</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>3</v>
       </c>
       <c r="AA25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AB25">
         <v>1.73</v>
@@ -5350,10 +5350,10 @@
         <v>1.9</v>
       </c>
       <c r="Z26">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA26">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB26">
         <v>1.5</v>
@@ -5481,10 +5481,10 @@
         <v>2.45</v>
       </c>
       <c r="Z27">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AA27">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
         <v>1.67</v>
@@ -5612,10 +5612,10 @@
         <v>1.35</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AA28">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
         <v>1.39</v>
@@ -5743,10 +5743,10 @@
         <v>1.44</v>
       </c>
       <c r="Z29">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AA29">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AB29">
         <v>1.26</v>
@@ -5874,10 +5874,10 @@
         <v>2.45</v>
       </c>
       <c r="Z30">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AA30">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AB30">
         <v>1.8</v>
@@ -6005,10 +6005,10 @@
         <v>2.9</v>
       </c>
       <c r="Z31">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AA31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AB31">
         <v>2.56</v>
@@ -6136,7 +6136,7 @@
         <v>1.85</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AA32">
         <v>1</v>
@@ -7651,22 +7651,22 @@
         <v>379</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H44">
         <v>2.2</v>
       </c>
       <c r="I44">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J44">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L44">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
         <v>1.35</v>
@@ -7687,10 +7687,10 @@
         <v>3.75</v>
       </c>
       <c r="S44">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T44">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U44">
         <v>1.62</v>
@@ -7723,13 +7723,13 @@
         <v>2.08</v>
       </c>
       <c r="AE44">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AF44">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG44">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="AH44">
         <v>0</v>
@@ -13162,13 +13162,13 @@
         <v>2.4</v>
       </c>
       <c r="J86">
-        <v>3.15</v>
+        <v>4.75</v>
       </c>
       <c r="K86">
-        <v>3.6</v>
+        <v>4.45</v>
       </c>
       <c r="L86">
-        <v>2.07</v>
+        <v>1.58</v>
       </c>
       <c r="M86">
         <v>1.22</v>
@@ -13189,10 +13189,10 @@
         <v>5.4</v>
       </c>
       <c r="S86">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T86">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
         <v>1.4</v>
@@ -14472,13 +14472,13 @@
         <v>2.5</v>
       </c>
       <c r="J96">
-        <v>3.5</v>
+        <v>2.41</v>
       </c>
       <c r="K96">
-        <v>3.5</v>
+        <v>3.74</v>
       </c>
       <c r="L96">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="M96">
         <v>1.3</v>
@@ -14630,10 +14630,10 @@
         <v>6</v>
       </c>
       <c r="S97">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="T97">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="U97">
         <v>2.2</v>
@@ -14734,13 +14734,13 @@
         <v>4.33</v>
       </c>
       <c r="J98">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="K98">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>4.55</v>
       </c>
       <c r="M98">
         <v>1.25</v>
@@ -14761,10 +14761,10 @@
         <v>5</v>
       </c>
       <c r="S98">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="T98">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U98">
         <v>1.5</v>
@@ -14865,13 +14865,13 @@
         <v>4</v>
       </c>
       <c r="J99">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="K99">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L99">
-        <v>3.35</v>
+        <v>4.75</v>
       </c>
       <c r="M99">
         <v>1.33</v>
@@ -14892,10 +14892,10 @@
         <v>4.05</v>
       </c>
       <c r="S99">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="T99">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="U99">
         <v>1.62</v>
@@ -15127,13 +15127,13 @@
         <v>3.4</v>
       </c>
       <c r="J101">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="K101">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="L101">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="M101">
         <v>1.33</v>
@@ -15157,7 +15157,7 @@
         <v>1.7</v>
       </c>
       <c r="T101">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U101">
         <v>1.62</v>
@@ -15258,13 +15258,13 @@
         <v>3.12</v>
       </c>
       <c r="J102">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="K102">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="L102">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="M102">
         <v>1.39</v>
@@ -15285,10 +15285,10 @@
         <v>3.35</v>
       </c>
       <c r="S102">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U102">
         <v>1.75</v>
@@ -15520,13 +15520,13 @@
         <v>4.43</v>
       </c>
       <c r="J104">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="K104">
-        <v>3.85</v>
+        <v>3.76</v>
       </c>
       <c r="L104">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="M104">
         <v>1.3</v>
@@ -15547,10 +15547,10 @@
         <v>4.41</v>
       </c>
       <c r="S104">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="T104">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="U104">
         <v>1.57</v>
@@ -17878,13 +17878,13 @@
         <v>3.75</v>
       </c>
       <c r="J122">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K122">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L122">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
         <v>1.36</v>
@@ -17908,7 +17908,7 @@
         <v>1.81</v>
       </c>
       <c r="T122">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U122">
         <v>1.68</v>
@@ -18009,13 +18009,13 @@
         <v>8.5</v>
       </c>
       <c r="J123">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="K123">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="L123">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M123">
         <v>1.25</v>
@@ -18036,10 +18036,10 @@
         <v>4.75</v>
       </c>
       <c r="S123">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="T123">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="U123">
         <v>2</v>
@@ -19179,22 +19179,22 @@
         <v>467</v>
       </c>
       <c r="G132">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H132">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I132">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J132">
-        <v>2.27</v>
+        <v>2.6</v>
       </c>
       <c r="K132">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L132">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="M132">
         <v>1.29</v>
@@ -19215,16 +19215,16 @@
         <v>4.33</v>
       </c>
       <c r="S132">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T132">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="U132">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V132">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W132">
         <v>1.4</v>
@@ -19319,13 +19319,13 @@
         <v>2.6</v>
       </c>
       <c r="J133">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K133">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="M133">
         <v>1.33</v>
@@ -19346,10 +19346,10 @@
         <v>4</v>
       </c>
       <c r="S133">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="T133">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="U133">
         <v>1.62</v>
@@ -20236,13 +20236,13 @@
         <v>4.8</v>
       </c>
       <c r="J140">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="K140">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L140">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="M140">
         <v>1.22</v>
@@ -20263,10 +20263,10 @@
         <v>5.45</v>
       </c>
       <c r="S140">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="T140">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U140">
         <v>1.48</v>
@@ -23118,7 +23118,7 @@
         <v>2.4</v>
       </c>
       <c r="J162">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K162">
         <v>3.65</v>
@@ -23764,22 +23764,22 @@
         <v>502</v>
       </c>
       <c r="G167">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H167">
         <v>1.95</v>
       </c>
       <c r="I167">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J167">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K167">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="M167">
         <v>1.52</v>
@@ -23800,10 +23800,10 @@
         <v>2.31</v>
       </c>
       <c r="S167">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="T167">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="U167">
         <v>2.2</v>
@@ -24690,13 +24690,13 @@
         <v>3.5</v>
       </c>
       <c r="J174">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="K174">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M174">
         <v>1.37</v>
@@ -24717,10 +24717,10 @@
         <v>3.42</v>
       </c>
       <c r="S174">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="T174">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="U174">
         <v>1.68</v>
@@ -24818,16 +24818,16 @@
         <v>2.1</v>
       </c>
       <c r="I175">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J175">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="K175">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L175">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="M175">
         <v>1.4</v>
@@ -24848,10 +24848,10 @@
         <v>3.15</v>
       </c>
       <c r="S175">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="U175">
         <v>1.95</v>
@@ -24887,10 +24887,10 @@
         <v>1.62</v>
       </c>
       <c r="AF175">
-        <v>8.1</v>
+        <v>11</v>
       </c>
       <c r="AG175">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="AH175">
         <v>1.19</v>
@@ -25205,22 +25205,22 @@
         <v>513</v>
       </c>
       <c r="G178">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H178">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I178">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J178">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="K178">
         <v>5</v>
       </c>
       <c r="L178">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M178">
         <v>1.33</v>
@@ -25241,16 +25241,16 @@
         <v>4</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="T178">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="U178">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V178">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W178">
         <v>1.01</v>
@@ -25277,13 +25277,13 @@
         <v>0</v>
       </c>
       <c r="AE178">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AF178">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG178">
-        <v>5.47</v>
+        <v>4.24</v>
       </c>
       <c r="AH178">
         <v>1.2</v>
@@ -25336,22 +25336,22 @@
         <v>514</v>
       </c>
       <c r="G179">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H179">
         <v>1.95</v>
       </c>
       <c r="I179">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J179">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="K179">
         <v>3</v>
       </c>
       <c r="L179">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="M179">
         <v>1.56</v>
@@ -25372,7 +25372,7 @@
         <v>2.38</v>
       </c>
       <c r="S179">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T179">
         <v>1.5</v>
@@ -25476,13 +25476,13 @@
         <v>7.5</v>
       </c>
       <c r="J180">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="K180">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="L180">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="M180">
         <v>1.4</v>
@@ -25503,10 +25503,10 @@
         <v>3.4</v>
       </c>
       <c r="S180">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T180">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U180">
         <v>2.1</v>
@@ -25598,22 +25598,22 @@
         <v>516</v>
       </c>
       <c r="G181">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H181">
         <v>1.95</v>
       </c>
       <c r="I181">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J181">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K181">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="M181">
         <v>1.52</v>
@@ -25634,10 +25634,10 @@
         <v>2.6</v>
       </c>
       <c r="S181">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="T181">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="U181">
         <v>2.1</v>
@@ -25860,22 +25860,22 @@
         <v>518</v>
       </c>
       <c r="G183">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H183">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I183">
         <v>6</v>
       </c>
       <c r="J183">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="K183">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L183">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M183">
         <v>1.44</v>
@@ -25896,16 +25896,16 @@
         <v>3.1</v>
       </c>
       <c r="S183">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="T183">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V183">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="W183">
         <v>1.11</v>
@@ -25932,13 +25932,13 @@
         <v>2.09</v>
       </c>
       <c r="AE183">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AF183">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AG183">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="AH183">
         <v>1.21</v>
@@ -25991,19 +25991,19 @@
         <v>519</v>
       </c>
       <c r="G184">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H184">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="I184">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J184">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="K184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L184">
         <v>4</v>
@@ -26027,16 +26027,16 @@
         <v>3.1</v>
       </c>
       <c r="S184">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="T184">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="U184">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W184">
         <v>1.25</v>
@@ -26066,10 +26066,10 @@
         <v>1.47</v>
       </c>
       <c r="AF184">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AG184">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="AH184">
         <v>1.21</v>
@@ -26131,13 +26131,13 @@
         <v>3.75</v>
       </c>
       <c r="J185">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K185">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="M185">
         <v>1.4</v>
@@ -26158,10 +26158,10 @@
         <v>3</v>
       </c>
       <c r="S185">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T185">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U185">
         <v>1.83</v>
@@ -26262,13 +26262,13 @@
         <v>3</v>
       </c>
       <c r="J186">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="K186">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L186">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="M186">
         <v>1.41</v>
@@ -26289,10 +26289,10 @@
         <v>3.14</v>
       </c>
       <c r="S186">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T186">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="U186">
         <v>1.77</v>
@@ -26393,13 +26393,13 @@
         <v>4</v>
       </c>
       <c r="J187">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="K187">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L187">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M187">
         <v>1.5</v>
@@ -26524,13 +26524,13 @@
         <v>3.6</v>
       </c>
       <c r="J188">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="K188">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L188">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
         <v>1.33</v>
@@ -26551,10 +26551,10 @@
         <v>3.75</v>
       </c>
       <c r="S188">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="T188">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U188">
         <v>1.62</v>
@@ -26655,13 +26655,13 @@
         <v>3.6</v>
       </c>
       <c r="J189">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="K189">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L189">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="M189">
         <v>1.33</v>
@@ -26682,10 +26682,10 @@
         <v>4.1</v>
       </c>
       <c r="S189">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="T189">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U189">
         <v>1.62</v>
@@ -26786,13 +26786,13 @@
         <v>5</v>
       </c>
       <c r="J190">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="K190">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L190">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M190">
         <v>1.29</v>
@@ -26917,13 +26917,13 @@
         <v>6</v>
       </c>
       <c r="J191">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="K191">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L191">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="M191">
         <v>1.25</v>
@@ -26947,7 +26947,7 @@
         <v>1.5</v>
       </c>
       <c r="T191">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="U191">
         <v>1.7</v>
@@ -27048,13 +27048,13 @@
         <v>3.5</v>
       </c>
       <c r="J192">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="K192">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L192">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M192">
         <v>1.33</v>
@@ -27075,10 +27075,10 @@
         <v>4.37</v>
       </c>
       <c r="S192">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="U192">
         <v>1.57</v>
@@ -27179,13 +27179,13 @@
         <v>3.25</v>
       </c>
       <c r="J193">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="K193">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L193">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="M193">
         <v>1.36</v>
@@ -27206,10 +27206,10 @@
         <v>3.9</v>
       </c>
       <c r="S193">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="T193">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="U193">
         <v>1.67</v>
@@ -27301,7 +27301,7 @@
         <v>529</v>
       </c>
       <c r="G194">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -27310,13 +27310,13 @@
         <v>5</v>
       </c>
       <c r="J194">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="K194">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="M194">
         <v>1.5</v>
@@ -27337,10 +27337,10 @@
         <v>2.8</v>
       </c>
       <c r="S194">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="T194">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="U194">
         <v>2.2</v>
@@ -27376,10 +27376,10 @@
         <v>1.87</v>
       </c>
       <c r="AF194">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AG194">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AH194">
         <v>1.19</v>
@@ -27441,13 +27441,13 @@
         <v>6.5</v>
       </c>
       <c r="J195">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K195">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L195">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M195">
         <v>1.33</v>
@@ -27468,16 +27468,16 @@
         <v>3.95</v>
       </c>
       <c r="S195">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T195">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="U195">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W195">
         <v>1.1</v>
@@ -27703,13 +27703,13 @@
         <v>3.5</v>
       </c>
       <c r="J197">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="K197">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L197">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M197">
         <v>1.33</v>
@@ -27730,10 +27730,10 @@
         <v>4</v>
       </c>
       <c r="S197">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="T197">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="U197">
         <v>1.62</v>
@@ -27834,13 +27834,13 @@
         <v>5</v>
       </c>
       <c r="J198">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="K198">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="M198">
         <v>1.36</v>
@@ -27864,7 +27864,7 @@
         <v>1.79</v>
       </c>
       <c r="T198">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U198">
         <v>1.8</v>
@@ -27965,13 +27965,13 @@
         <v>4.33</v>
       </c>
       <c r="J199">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="K199">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L199">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M199">
         <v>1.3</v>
@@ -27995,7 +27995,7 @@
         <v>1.61</v>
       </c>
       <c r="T199">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="U199">
         <v>1.62</v>
@@ -28099,10 +28099,10 @@
         <v>2.3</v>
       </c>
       <c r="K200">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L200">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M200">
         <v>1.4</v>
@@ -28123,10 +28123,10 @@
         <v>3.25</v>
       </c>
       <c r="S200">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="T200">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U200">
         <v>1.8</v>
@@ -28227,13 +28227,13 @@
         <v>4.75</v>
       </c>
       <c r="J201">
-        <v>2.6</v>
+        <v>1.78</v>
       </c>
       <c r="K201">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L201">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
       <c r="M201">
         <v>1.4</v>
@@ -28254,10 +28254,10 @@
         <v>3.2</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T201">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U201">
         <v>1.8</v>
@@ -28358,13 +28358,13 @@
         <v>4.5</v>
       </c>
       <c r="J202">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="K202">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L202">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="M202">
         <v>1.4</v>
@@ -28385,10 +28385,10 @@
         <v>3.3</v>
       </c>
       <c r="S202">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="T202">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U202">
         <v>1.8</v>
@@ -28489,13 +28489,13 @@
         <v>4</v>
       </c>
       <c r="J203">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="K203">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
         <v>1.36</v>
@@ -28516,10 +28516,10 @@
         <v>3.6</v>
       </c>
       <c r="S203">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T203">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="U203">
         <v>1.75</v>
